--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
@@ -687,7 +687,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-patient)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-patient)
 </t>
   </si>
   <si>
@@ -866,7 +866,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization)
 </t>
   </si>
   <si>

--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
@@ -1474,7 +1474,7 @@
     <t>.component.section</t>
   </si>
   <si>
-    <t>Section_Vaccinations</t>
+    <t>sectionVaccinations</t>
   </si>
   <si>
     <t>Vaccinations Section</t>
@@ -1503,7 +1503,7 @@
 </t>
   </si>
   <si>
-    <t>Section_Vaccinations_Entry</t>
+    <t>sectionVaccinationsEntry</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-immunization)
@@ -1666,7 +1666,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.1796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="479">
   <si>
     <t>Path</t>
   </si>
@@ -666,13 +666,14 @@
     <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="svc-covid19"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/SHC-Category-ValueSet</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1206,6 +1207,9 @@
   </si>
   <si>
     <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more eventCodes are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>This list of codes represents the main clinical acts being documented.</t>
@@ -4115,7 +4119,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>203</v>
       </c>
@@ -4125,13 +4129,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -4162,7 +4166,7 @@
         <v>41</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4177,13 +4181,11 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X22" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -4216,16 +4218,16 @@
         <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>202</v>
@@ -4233,7 +4235,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4256,19 +4258,19 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4317,7 +4319,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4335,21 +4337,21 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4461,7 +4463,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4575,7 +4577,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4601,13 +4603,13 @@
         <v>55</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4657,16 +4659,16 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>65</v>
@@ -4689,7 +4691,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4715,13 +4717,13 @@
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4750,28 +4752,28 @@
         <v>147</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4803,7 +4805,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4829,13 +4831,13 @@
         <v>111</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4885,7 +4887,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4903,7 +4905,7 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4917,7 +4919,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4943,13 +4945,13 @@
         <v>55</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4999,7 +5001,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5031,7 +5033,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5054,17 +5056,17 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -5113,7 +5115,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5128,24 +5130,24 @@
         <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5168,19 +5170,19 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5229,7 +5231,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>53</v>
@@ -5244,24 +5246,24 @@
         <v>65</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5284,17 +5286,17 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5343,7 +5345,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>53</v>
@@ -5358,24 +5360,24 @@
         <v>65</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5401,13 +5403,13 @@
         <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5418,7 +5420,7 @@
         <v>41</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5457,7 +5459,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>53</v>
@@ -5475,13 +5477,13 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5489,7 +5491,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5515,13 +5517,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5550,11 +5552,11 @@
         <v>136</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5589,13 +5591,13 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5603,7 +5605,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5626,19 +5628,19 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5687,7 +5689,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5705,13 +5707,13 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5719,7 +5721,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5831,7 +5833,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5945,11 +5947,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5971,10 +5973,10 @@
         <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>102</v>
@@ -6029,7 +6031,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6061,7 +6063,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6087,14 +6089,14 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6122,11 +6124,11 @@
         <v>136</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
       </c>
@@ -6143,7 +6145,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>53</v>
@@ -6161,10 +6163,10 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -6175,7 +6177,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6198,17 +6200,17 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -6257,7 +6259,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6275,10 +6277,10 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6289,7 +6291,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6312,17 +6314,17 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6371,7 +6373,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6389,21 +6391,21 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6429,16 +6431,16 @@
         <v>173</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6487,7 +6489,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6505,13 +6507,13 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6519,7 +6521,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6542,16 +6544,16 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6601,7 +6603,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6619,13 +6621,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6633,7 +6635,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6745,7 +6747,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6859,11 +6861,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6885,10 +6887,10 @@
         <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>102</v>
@@ -6943,7 +6945,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6975,7 +6977,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7001,13 +7003,13 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7036,11 +7038,11 @@
         <v>136</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
       </c>
@@ -7057,7 +7059,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>53</v>
@@ -7075,13 +7077,13 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7089,7 +7091,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7112,13 +7114,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7169,7 +7171,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>53</v>
@@ -7187,13 +7189,13 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7201,7 +7203,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7224,19 +7226,19 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7285,7 +7287,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7303,13 +7305,13 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7317,7 +7319,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7429,7 +7431,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7543,11 +7545,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7569,10 +7571,10 @@
         <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>102</v>
@@ -7627,7 +7629,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7659,7 +7661,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7685,13 +7687,13 @@
         <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7717,7 +7719,7 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>208</v>
+        <v>383</v>
       </c>
       <c r="X53" t="s" s="2">
         <v>384</v>
@@ -7741,7 +7743,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7871,10 +7873,10 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>390</v>
@@ -8020,7 +8022,7 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>397</v>
@@ -8337,7 +8339,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8359,10 +8361,10 @@
         <v>99</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>102</v>
@@ -8417,7 +8419,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8551,10 +8553,10 @@
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8625,7 +8627,7 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>208</v>
+        <v>383</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>417</v>
@@ -8714,7 +8716,7 @@
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8781,16 +8783,16 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -9624,7 +9626,7 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>471</v>
@@ -9943,7 +9945,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9965,10 +9967,10 @@
         <v>99</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>102</v>
@@ -10023,7 +10025,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10157,10 +10159,10 @@
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10231,7 +10233,7 @@
         <v>41</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>208</v>
+        <v>383</v>
       </c>
       <c r="X75" t="s" s="2">
         <v>417</v>
@@ -10320,7 +10322,7 @@
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>41</v>
@@ -10387,16 +10389,16 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" hidden="true">

--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="484">
   <si>
     <t>Path</t>
   </si>
@@ -1476,6 +1476,27 @@
   </si>
   <si>
     <t>.component.section</t>
+  </si>
+  <si>
+    <t>qrCode</t>
+  </si>
+  <si>
+    <t>Composition is broken into sections</t>
+  </si>
+  <si>
+    <t>The root of the sections that make up the composition.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://who-int.github.io/svc/refs/heads/rc2/CodeSystem/SHC-SectionCode-CodeSystem"/&gt;
+    &lt;code value="qrdoc"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-documentreference-qr)
+</t>
   </si>
   <si>
     <t>sectionVaccinations</t>
@@ -1660,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9611,10 +9632,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>54</v>
@@ -10171,7 +10192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>412</v>
       </c>
@@ -10187,7 +10208,7 @@
         <v>53</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -10871,13 +10892,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>41</v>
@@ -10886,13 +10907,13 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>392</v>
+        <v>474</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>453</v>
@@ -10933,14 +10954,16 @@
         <v>41</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AB81" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
         <v>450</v>
@@ -10973,13 +10996,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>41</v>
       </c>
@@ -10988,10 +11009,10 @@
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -11000,18 +11021,20 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>478</v>
+        <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>41</v>
       </c>
@@ -11035,13 +11058,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>41</v>
+        <v>462</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11059,13 +11082,13 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>454</v>
@@ -11077,10 +11100,10 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>456</v>
+        <v>124</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>41</v>
@@ -11091,7 +11114,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11102,7 +11125,7 @@
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -11114,20 +11137,18 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
       </c>
@@ -11151,13 +11172,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>462</v>
+        <v>41</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>463</v>
+        <v>41</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -11175,16 +11196,16 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>65</v>
@@ -11193,10 +11214,10 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>464</v>
+        <v>401</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>124</v>
+        <v>469</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11205,23 +11226,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B84" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="C84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
@@ -11230,17 +11253,15 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11289,7 +11310,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11298,10 +11319,10 @@
         <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>432</v>
+        <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
@@ -11310,17 +11331,1623 @@
         <v>401</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AB95" s="2"/>
+      <c r="AC95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AM98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN84">
+  <autoFilter ref="A1:AN98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11330,7 +12957,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$112</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="488">
   <si>
     <t>Path</t>
   </si>
@@ -1252,6 +1252,9 @@
     <t>Composition.section</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Sections composing the SVC</t>
   </si>
   <si>
@@ -1496,6 +1499,21 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-documentreference-qr)
+</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://who-int.github.io/svc/refs/heads/rc2/CodeSystem/SHC-SectionCode-CodeSystem"/&gt;
+    &lt;code value="uri"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
@@ -1681,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN98"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8028,7 +8046,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>53</v>
+        <v>397</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>43</v>
@@ -8046,10 +8064,10 @@
         <v>297</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8088,7 +8106,7 @@
         <v>41</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
@@ -8110,16 +8128,16 @@
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8130,7 +8148,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8242,7 +8260,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8356,7 +8374,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8472,11 +8490,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8498,16 +8516,16 @@
         <v>55</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
@@ -8556,7 +8574,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8588,7 +8606,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8614,16 +8632,16 @@
         <v>142</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8651,10 +8669,10 @@
         <v>383</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -8672,7 +8690,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8704,7 +8722,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8727,13 +8745,13 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
@@ -8786,7 +8804,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8818,7 +8836,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8844,13 +8862,13 @@
         <v>392</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8900,7 +8918,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8921,7 +8939,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8932,7 +8950,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8958,13 +8976,13 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9014,7 +9032,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9023,7 +9041,7 @@
         <v>53</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>65</v>
@@ -9032,10 +9050,10 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -9046,7 +9064,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9072,16 +9090,16 @@
         <v>73</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9109,10 +9127,10 @@
         <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9130,7 +9148,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9148,7 +9166,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>124</v>
@@ -9162,7 +9180,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9188,16 +9206,16 @@
         <v>142</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9225,10 +9243,10 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9246,7 +9264,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9264,7 +9282,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>124</v>
@@ -9278,7 +9296,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9304,13 +9322,13 @@
         <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9360,7 +9378,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9369,7 +9387,7 @@
         <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>65</v>
@@ -9378,10 +9396,10 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9392,7 +9410,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9418,16 +9436,16 @@
         <v>142</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9455,10 +9473,10 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9476,7 +9494,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9485,7 +9503,7 @@
         <v>53</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>65</v>
@@ -9494,7 +9512,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>124</v>
@@ -9508,7 +9526,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9534,13 +9552,13 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9590,7 +9608,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9599,7 +9617,7 @@
         <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>65</v>
@@ -9608,10 +9626,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9625,14 +9643,14 @@
         <v>396</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>43</v>
@@ -9650,10 +9668,10 @@
         <v>297</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9716,16 +9734,16 @@
         <v>41</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9736,7 +9754,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9848,7 +9866,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9962,7 +9980,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10078,11 +10096,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10104,16 +10122,16 @@
         <v>55</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>41</v>
@@ -10162,7 +10180,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10194,7 +10212,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10220,16 +10238,16 @@
         <v>142</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>41</v>
@@ -10239,7 +10257,7 @@
         <v>41</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>41</v>
@@ -10257,10 +10275,10 @@
         <v>383</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>41</v>
@@ -10278,7 +10296,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10310,7 +10328,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10333,13 +10351,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
@@ -10392,7 +10410,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10424,7 +10442,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10450,13 +10468,13 @@
         <v>392</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10506,7 +10524,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10527,7 +10545,7 @@
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10538,7 +10556,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10564,13 +10582,13 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10620,7 +10638,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10629,7 +10647,7 @@
         <v>53</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>65</v>
@@ -10638,10 +10656,10 @@
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10652,7 +10670,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10678,16 +10696,16 @@
         <v>73</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -10715,10 +10733,10 @@
         <v>136</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>41</v>
@@ -10736,7 +10754,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10754,7 +10772,7 @@
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>124</v>
@@ -10768,7 +10786,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10794,16 +10812,16 @@
         <v>142</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -10831,10 +10849,10 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>41</v>
@@ -10852,7 +10870,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10870,7 +10888,7 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>124</v>
@@ -10884,7 +10902,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10907,16 +10925,16 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10966,7 +10984,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10975,7 +10993,7 @@
         <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>65</v>
@@ -10984,10 +11002,10 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>41</v>
@@ -10998,7 +11016,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11024,16 +11042,16 @@
         <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -11061,10 +11079,10 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11082,7 +11100,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11091,7 +11109,7 @@
         <v>53</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>65</v>
@@ -11100,7 +11118,7 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>124</v>
@@ -11114,7 +11132,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11140,13 +11158,13 @@
         <v>41</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11196,7 +11214,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11205,7 +11223,7 @@
         <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>65</v>
@@ -11214,10 +11232,10 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11231,17 +11249,17 @@
         <v>396</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>54</v>
@@ -11256,10 +11274,10 @@
         <v>297</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11322,16 +11340,16 @@
         <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>41</v>
@@ -11342,7 +11360,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11454,7 +11472,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11568,7 +11586,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11684,11 +11702,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11710,16 +11728,16 @@
         <v>55</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>41</v>
@@ -11768,7 +11786,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11798,9 +11816,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11814,7 +11832,7 @@
         <v>53</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>41</v>
@@ -11826,16 +11844,16 @@
         <v>142</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>41</v>
@@ -11845,7 +11863,7 @@
         <v>41</v>
       </c>
       <c r="R89" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>41</v>
@@ -11863,10 +11881,10 @@
         <v>383</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>41</v>
@@ -11884,7 +11902,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11916,7 +11934,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11939,13 +11957,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
@@ -11998,7 +12016,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12030,7 +12048,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12056,13 +12074,13 @@
         <v>392</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12112,7 +12130,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12133,7 +12151,7 @@
         <v>41</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>41</v>
@@ -12144,7 +12162,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12170,13 +12188,13 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12226,7 +12244,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12235,7 +12253,7 @@
         <v>53</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>65</v>
@@ -12244,10 +12262,10 @@
         <v>41</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>41</v>
@@ -12258,7 +12276,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12284,16 +12302,16 @@
         <v>73</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>41</v>
@@ -12321,10 +12339,10 @@
         <v>136</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>41</v>
@@ -12342,7 +12360,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12360,7 +12378,7 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>124</v>
@@ -12374,7 +12392,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12400,16 +12418,16 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12437,10 +12455,10 @@
         <v>77</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>41</v>
@@ -12458,7 +12476,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12476,7 +12494,7 @@
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>124</v>
@@ -12490,7 +12508,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12498,13 +12516,13 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>41</v>
@@ -12513,16 +12531,16 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12560,17 +12578,19 @@
         <v>41</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AB95" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12579,7 +12599,7 @@
         <v>43</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>65</v>
@@ -12588,10 +12608,10 @@
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>41</v>
@@ -12600,13 +12620,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
         <v>41</v>
       </c>
@@ -12615,10 +12633,10 @@
         <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>41</v>
@@ -12627,18 +12645,20 @@
         <v>41</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>483</v>
+        <v>142</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>41</v>
       </c>
@@ -12662,13 +12682,13 @@
         <v>41</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>41</v>
+        <v>464</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>41</v>
@@ -12686,16 +12706,16 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>65</v>
@@ -12704,10 +12724,10 @@
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>456</v>
+        <v>124</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>41</v>
@@ -12718,7 +12738,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12729,7 +12749,7 @@
         <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>41</v>
@@ -12741,20 +12761,18 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>41</v>
       </c>
@@ -12778,13 +12796,13 @@
         <v>41</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>462</v>
+        <v>41</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>463</v>
+        <v>41</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>41</v>
@@ -12802,16 +12820,16 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>65</v>
@@ -12820,10 +12838,10 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>124</v>
+        <v>470</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>41</v>
@@ -12832,23 +12850,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B98" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="C98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>41</v>
@@ -12857,17 +12877,15 @@
         <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>41</v>
@@ -12916,7 +12934,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -12925,29 +12943,1635 @@
         <v>43</v>
       </c>
       <c r="AH98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AI98" t="s" s="2">
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AI106" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="AJ98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AJ106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AB109" s="2"/>
+      <c r="AC109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN98" t="s" s="2">
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN98">
+  <autoFilter ref="A1:AN112">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12957,7 +14581,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI97">
+  <conditionalFormatting sqref="A2:AI111">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
